--- a/data/trans_orig/P56S_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P56S_R-Edad-trans_orig.xlsx
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4738</v>
+        <v>4742</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04218233184172183</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.214689316581519</v>
+        <v>0.2148843517085108</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4609</v>
+        <v>4314</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02664810245604019</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.131937090932342</v>
+        <v>0.1234804221628895</v>
       </c>
     </row>
     <row r="7">
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3532</v>
+        <v>4358</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06516983556758599</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2745481461840666</v>
+        <v>0.3387481731544302</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -969,19 +969,19 @@
         <v>2984</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>904</v>
+        <v>882</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7935</v>
+        <v>6938</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.135211512634075</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04095529299932487</v>
+        <v>0.03995860170509206</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3595341675769186</v>
+        <v>0.3143639836429849</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -990,19 +990,19 @@
         <v>3822</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>958</v>
+        <v>927</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8615</v>
+        <v>8073</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1094176925534006</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02743624311523317</v>
+        <v>0.02654768133699508</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2466043658397353</v>
+        <v>0.2310888006087636</v>
       </c>
     </row>
     <row r="9">
@@ -1066,19 +1066,19 @@
         <v>10422</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6906</v>
+        <v>6749</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12105</v>
+        <v>12104</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8100672222387799</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5368041287011049</v>
+        <v>0.5246221421981561</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9409545282089053</v>
+        <v>0.9408642926439722</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1087,19 +1087,19 @@
         <v>16327</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12056</v>
+        <v>11568</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19910</v>
+        <v>19426</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7398007879220236</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5462974921830277</v>
+        <v>0.5241809452368649</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9021755428506738</v>
+        <v>0.8802467328739015</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -1108,19 +1108,19 @@
         <v>26748</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21535</v>
+        <v>21109</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30694</v>
+        <v>30587</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7656773779807744</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6164427636280778</v>
+        <v>0.6042570974859914</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8786261162501992</v>
+        <v>0.8755741199485388</v>
       </c>
     </row>
     <row r="11">
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5026</v>
+        <v>5023</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1247629421936341</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3906931181965214</v>
+        <v>0.3904754350623613</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5685</v>
+        <v>5614</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08280536760217951</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2575840138189424</v>
+        <v>0.2543972954318059</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -1179,19 +1179,19 @@
         <v>3433</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7914</v>
+        <v>8290</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09825682700978487</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02567995521720574</v>
+        <v>0.02576989508442455</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2265423865912468</v>
+        <v>0.2373169706273287</v>
       </c>
     </row>
     <row r="12">
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5399</v>
+        <v>5732</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01482182203628083</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07553904401754868</v>
+        <v>0.08018951970793416</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6591</v>
+        <v>5296</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009910974080051052</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06166166106297891</v>
+        <v>0.04954591605270051</v>
       </c>
     </row>
     <row r="17">
@@ -1487,19 +1487,19 @@
         <v>2623</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7003</v>
+        <v>6292</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07405211980768353</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0226835830363372</v>
+        <v>0.02261578855497891</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1977404668609274</v>
+        <v>0.1776624877408762</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1508,19 +1508,19 @@
         <v>6755</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3138</v>
+        <v>3238</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13743</v>
+        <v>14337</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09451068939252057</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04389750343942973</v>
+        <v>0.04530258277624469</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1922757847332106</v>
+        <v>0.2005851267857864</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -1529,19 +1529,19 @@
         <v>9378</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4422</v>
+        <v>4757</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16863</v>
+        <v>16876</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08773224309980743</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04136514357318723</v>
+        <v>0.04450544861325816</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1577570584293858</v>
+        <v>0.1578783703972349</v>
       </c>
     </row>
     <row r="18">
@@ -1571,19 +1571,19 @@
         <v>4534</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1151</v>
+        <v>1177</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10345</v>
+        <v>11263</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06342734427532433</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01610855319385347</v>
+        <v>0.01646096718825463</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1447345259948351</v>
+        <v>0.1575824331065282</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -1592,19 +1592,19 @@
         <v>4533</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10200</v>
+        <v>10237</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04241224618272048</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01069840923181816</v>
+        <v>0.01060472931447195</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09542881149416665</v>
+        <v>0.0957685489343385</v>
       </c>
     </row>
     <row r="19">
@@ -1621,19 +1621,19 @@
         <v>31029</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25185</v>
+        <v>26416</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33732</v>
+        <v>33754</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8761427372255378</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7111076137536866</v>
+        <v>0.7458777252868393</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9524479212637027</v>
+        <v>0.9530783848197215</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -1642,19 +1642,19 @@
         <v>50933</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42491</v>
+        <v>42921</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>58973</v>
+        <v>57996</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7125945188768678</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5944783117176037</v>
+        <v>0.6004919591169812</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8250791999846735</v>
+        <v>0.8114115363938805</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>78</v>
@@ -1663,19 +1663,19 @@
         <v>81962</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71881</v>
+        <v>72243</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>89857</v>
+        <v>90402</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7667822180582917</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6724723330958091</v>
+        <v>0.675853628688614</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8406427668867436</v>
+        <v>0.8457416799477649</v>
       </c>
     </row>
     <row r="20">
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6246</v>
+        <v>5416</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04980514296677871</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1763624155038718</v>
+        <v>0.1529186335477667</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1713,19 +1713,19 @@
         <v>8194</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3347</v>
+        <v>3594</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15273</v>
+        <v>14361</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1146456254190066</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04683128679498445</v>
+        <v>0.05027956402827674</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2136805656155604</v>
+        <v>0.2009245706320344</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -1734,19 +1734,19 @@
         <v>9958</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5224</v>
+        <v>4859</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18773</v>
+        <v>17867</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09316231857912928</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04886840292585753</v>
+        <v>0.04545357869258185</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1756292328434255</v>
+        <v>0.1671513379419271</v>
       </c>
     </row>
     <row r="21">
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4836</v>
+        <v>5082</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.009951655140658371</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05170041195892871</v>
+        <v>0.05432313327012159</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4697</v>
+        <v>5011</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.006563872306161771</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0331191102556042</v>
+        <v>0.03533168562589505</v>
       </c>
     </row>
     <row r="25">
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5273</v>
+        <v>5728</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01132505798789349</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05636690093508012</v>
+        <v>0.06122871120656589</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4589</v>
+        <v>6209</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.007469735781810095</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03235990747599847</v>
+        <v>0.0437763575206089</v>
       </c>
     </row>
     <row r="26">
@@ -2058,19 +2058,19 @@
         <v>3461</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7605</v>
+        <v>7995</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07168534256005003</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.018181376761014</v>
+        <v>0.01837348025444355</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1575053765667068</v>
+        <v>0.1655899125735037</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -2079,19 +2079,19 @@
         <v>9739</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4428</v>
+        <v>4503</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17432</v>
+        <v>18109</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1041128270448593</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04733049286483607</v>
+        <v>0.04813554929887203</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1863487299131111</v>
+        <v>0.1935898667859195</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -2100,19 +2100,19 @@
         <v>13200</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7816</v>
+        <v>6800</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>21702</v>
+        <v>21181</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09307373116072741</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05511206843949409</v>
+        <v>0.04794411251834887</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1530211165836378</v>
+        <v>0.1493441126116334</v>
       </c>
     </row>
     <row r="27">
@@ -2142,19 +2142,19 @@
         <v>4534</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>11223</v>
+        <v>10350</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.04846356609719327</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01220921281170157</v>
+        <v>0.01222859168322625</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1199692966986048</v>
+        <v>0.1106470767504081</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4</v>
@@ -2163,19 +2163,19 @@
         <v>4533</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>10214</v>
+        <v>10421</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03196540222375133</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.008176581780920782</v>
+        <v>0.008214921848613334</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07201707522145609</v>
+        <v>0.07347537972296533</v>
       </c>
     </row>
     <row r="28">
@@ -2192,19 +2192,19 @@
         <v>41451</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>36050</v>
+        <v>35871</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>44966</v>
+        <v>44884</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8585362273155815</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7466761878708803</v>
+        <v>0.742964941540127</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9313391737089719</v>
+        <v>0.9296486422790955</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>61</v>
@@ -2213,19 +2213,19 @@
         <v>67260</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>58239</v>
+        <v>57730</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>75804</v>
+        <v>75649</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7190130214911202</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6225799900091378</v>
+        <v>0.6171358984087222</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8103453162994166</v>
+        <v>0.808686749748513</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>106</v>
@@ -2234,19 +2234,19 @@
         <v>108710</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>96500</v>
+        <v>97613</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>118096</v>
+        <v>117862</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.766510077510967</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6804193048540106</v>
+        <v>0.6882655740973134</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8326882439682649</v>
+        <v>0.8310382305969679</v>
       </c>
     </row>
     <row r="29">
@@ -2263,19 +2263,19 @@
         <v>3369</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>843</v>
+        <v>930</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8657</v>
+        <v>7811</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06977843012436839</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01747024838080122</v>
+        <v>0.01927245778077691</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1793055262008519</v>
+        <v>0.1617828534395197</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -2284,19 +2284,19 @@
         <v>10022</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5399</v>
+        <v>4581</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17090</v>
+        <v>17262</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1071338722382753</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05771207367531488</v>
+        <v>0.04897637917218103</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1826923815260866</v>
+        <v>0.1845307411802675</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -2305,19 +2305,19 @@
         <v>13391</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7530</v>
+        <v>7687</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21376</v>
+        <v>21536</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09441718101658243</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0530951419818662</v>
+        <v>0.05420324375356561</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1507209027659802</v>
+        <v>0.1518472698523911</v>
       </c>
     </row>
     <row r="30">
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5731</v>
+        <v>4658</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05135906321920521</v>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2674599067041783</v>
+        <v>0.2173892033312814</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6222</v>
+        <v>5225</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01731440505900651</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09788698947330141</v>
+        <v>0.08220221513403904</v>
       </c>
     </row>
     <row r="5">
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6047</v>
+        <v>6855</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04582391109434655</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.143519184746166</v>
+        <v>0.1626923729111823</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7124</v>
+        <v>6652</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03037554213385645</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1120807961152124</v>
+        <v>0.1046508492613405</v>
       </c>
     </row>
     <row r="7">
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4024</v>
+        <v>4926</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0231696475133002</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09551215910611255</v>
+        <v>0.1169209315223718</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6210</v>
+        <v>5420</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01535858872495241</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09770317295524579</v>
+        <v>0.08527565598294767</v>
       </c>
     </row>
     <row r="8">
@@ -2896,19 +2896,19 @@
         <v>2961</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7101</v>
+        <v>8009</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07026899731299106</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02166718317452861</v>
+        <v>0.02194757286954028</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1685289199305593</v>
+        <v>0.1900716757927192</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -2917,19 +2917,19 @@
         <v>2961</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7754</v>
+        <v>7175</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04657958776565323</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01443626339584882</v>
+        <v>0.01475834383251105</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1219946941143319</v>
+        <v>0.1128716762088166</v>
       </c>
     </row>
     <row r="9">
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4537</v>
+        <v>5090</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04655968594753842</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.211712545050326</v>
+        <v>0.2375311129831292</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4689</v>
+        <v>4095</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01569641678383184</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07376446115641774</v>
+        <v>0.06442785071106684</v>
       </c>
     </row>
     <row r="10">
@@ -3009,19 +3009,19 @@
         <v>18337</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13940</v>
+        <v>13912</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20493</v>
+        <v>20478</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8556970457442853</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6505225813549982</v>
+        <v>0.6492361148680826</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9563095878725941</v>
+        <v>0.9556221438735181</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -3030,19 +3030,19 @@
         <v>28568</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22278</v>
+        <v>22073</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33963</v>
+        <v>34192</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6780089668344609</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5287240018144237</v>
+        <v>0.5238576746992124</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8060452500439144</v>
+        <v>0.8114757574841405</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -3051,19 +3051,19 @@
         <v>46905</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38016</v>
+        <v>39887</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52638</v>
+        <v>53263</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7379119942567166</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.598071254108848</v>
+        <v>0.627501579126891</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8281055646309278</v>
+        <v>0.8379468161257576</v>
       </c>
     </row>
     <row r="11">
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4215</v>
+        <v>4326</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0463842050889711</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1967139594707189</v>
+        <v>0.2018694819478202</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -3101,19 +3101,19 @@
         <v>7699</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3735</v>
+        <v>3767</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13663</v>
+        <v>13142</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1827284772449013</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08864647593842924</v>
+        <v>0.08940380371660465</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3242684815396399</v>
+        <v>0.3118983866741507</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -3122,19 +3122,19 @@
         <v>8693</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3952</v>
+        <v>4522</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14575</v>
+        <v>15043</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.136763465275983</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06216736187345843</v>
+        <v>0.07113534316612927</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2292982333328561</v>
+        <v>0.2366527978972064</v>
       </c>
     </row>
     <row r="12">
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5549</v>
+        <v>5386</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006081016680118683</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03402053227184589</v>
+        <v>0.03302124047161176</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6400</v>
+        <v>5061</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004504716890990265</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02906423735723869</v>
+        <v>0.02298293790092955</v>
       </c>
     </row>
     <row r="14">
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6665</v>
+        <v>7061</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03541582159432925</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1167802714034768</v>
+        <v>0.1237052006961809</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -3310,19 +3310,19 @@
         <v>4247</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12646</v>
+        <v>12310</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02603873020950088</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006761015020133584</v>
+        <v>0.00677493926907569</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07752896387038444</v>
+        <v>0.07547359520702289</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -3331,19 +3331,19 @@
         <v>6269</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2096</v>
+        <v>2130</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14437</v>
+        <v>14618</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02846942690876637</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009519190996194853</v>
+        <v>0.009675617097231165</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06556580675739937</v>
+        <v>0.06638980303441636</v>
       </c>
     </row>
     <row r="15">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6421</v>
+        <v>7016</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03878083142051362</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1125071119145612</v>
+        <v>0.1229247060167485</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>14</v>
@@ -3381,19 +3381,19 @@
         <v>15061</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>8725</v>
+        <v>8451</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>23927</v>
+        <v>22429</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09233409542973581</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05349139886996454</v>
+        <v>0.05181243418468259</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1466911073227601</v>
+        <v>0.137506093846026</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>16</v>
@@ -3402,19 +3402,19 @@
         <v>17274</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10842</v>
+        <v>10411</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>27140</v>
+        <v>26898</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07845220639613626</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04924098858497546</v>
+        <v>0.04728313932756776</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.123259978186654</v>
+        <v>0.1221593181745095</v>
       </c>
     </row>
     <row r="16">
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5341</v>
+        <v>6654</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007113724152524821</v>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03274543867492061</v>
+        <v>0.04079571161747757</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5715</v>
+        <v>7752</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005269729558955682</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02595515659107056</v>
+        <v>0.03520735114911434</v>
       </c>
     </row>
     <row r="17">
@@ -3494,19 +3494,19 @@
         <v>4307</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1153</v>
+        <v>1082</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10429</v>
+        <v>10247</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07546506769271434</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02020056844910397</v>
+        <v>0.01895670690790973</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1827130841959766</v>
+        <v>0.179538763251001</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -3515,19 +3515,19 @@
         <v>19493</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12107</v>
+        <v>11829</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30572</v>
+        <v>29460</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1195063861388196</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07422469104532516</v>
+        <v>0.07252438564292485</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1874307146256043</v>
+        <v>0.1806143909685414</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -3536,19 +3536,19 @@
         <v>23800</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15067</v>
+        <v>15268</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34612</v>
+        <v>34869</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1080901502310144</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06842816180784567</v>
+        <v>0.06934244269135674</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1571950314689988</v>
+        <v>0.1583601118789893</v>
       </c>
     </row>
     <row r="18">
@@ -3565,19 +3565,19 @@
         <v>5501</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2121</v>
+        <v>2163</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11430</v>
+        <v>11907</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09637620323934745</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0371574224870404</v>
+        <v>0.03789047017133058</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2002556024342128</v>
+        <v>0.2086198895574579</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -3586,19 +3586,19 @@
         <v>22986</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14353</v>
+        <v>14381</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>32712</v>
+        <v>33480</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1409246007611629</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08799824018742258</v>
+        <v>0.08816554077693331</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2005495761233571</v>
+        <v>0.2052631158408782</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>26</v>
@@ -3607,19 +3607,19 @@
         <v>28487</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>19874</v>
+        <v>19204</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>39702</v>
+        <v>39469</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1293769215960605</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09026163142124734</v>
+        <v>0.08721880176664633</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1803130629351024</v>
+        <v>0.1792535728465951</v>
       </c>
     </row>
     <row r="19">
@@ -3636,19 +3636,19 @@
         <v>41971</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33855</v>
+        <v>33046</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>47993</v>
+        <v>47550</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7353602954888239</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5931571462464569</v>
+        <v>0.578987815302791</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8408581665220179</v>
+        <v>0.8331038606811011</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>85</v>
@@ -3657,19 +3657,19 @@
         <v>93418</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>80433</v>
+        <v>80091</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>106357</v>
+        <v>106692</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5727326155198263</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4931221274201439</v>
+        <v>0.4910270703393441</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6520565933297604</v>
+        <v>0.6541127128892271</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>119</v>
@@ -3678,19 +3678,19 @@
         <v>135390</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>121113</v>
+        <v>120474</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>151201</v>
+        <v>151182</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6148883916221494</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5500490976117756</v>
+        <v>0.5471468104861614</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6866948826838238</v>
+        <v>0.6866107077825453</v>
       </c>
     </row>
     <row r="20">
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5796</v>
+        <v>4967</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01860178056427142</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1015489338519084</v>
+        <v>0.08702568556219763</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -3728,19 +3728,19 @@
         <v>5753</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2246</v>
+        <v>2298</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11722</v>
+        <v>13696</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03526883110831099</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01377000380499619</v>
+        <v>0.01408562728958134</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07186759356896522</v>
+        <v>0.08397059511188744</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -3749,19 +3749,19 @@
         <v>6814</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3235</v>
+        <v>3217</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14511</v>
+        <v>13756</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03094845679592717</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01469313098442536</v>
+        <v>0.014610057874737</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06590381955848694</v>
+        <v>0.06247334261996116</v>
       </c>
     </row>
     <row r="21">
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5771</v>
+        <v>5035</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01401918089039714</v>
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07350904978936494</v>
+        <v>0.06413002357449679</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4990</v>
+        <v>6004</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004832637232770094</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02431013875507569</v>
+        <v>0.02925352235385438</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7367</v>
+        <v>6416</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007374269261463447</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02596259661155917</v>
+        <v>0.02261008586946163</v>
       </c>
     </row>
     <row r="23">
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7017</v>
+        <v>6626</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02574857343612543</v>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08938866097377103</v>
+        <v>0.08440028601997759</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -3945,19 +3945,19 @@
         <v>4247</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12556</v>
+        <v>13421</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02069320702834077</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.005396594448224182</v>
+        <v>0.005336686543463164</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06117377586970777</v>
+        <v>0.06538985586201704</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -3966,19 +3966,19 @@
         <v>6269</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>13926</v>
+        <v>13506</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02209187029688555</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.007461296959024956</v>
+        <v>0.007470249931237128</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04907942041636087</v>
+        <v>0.04759738708337275</v>
       </c>
     </row>
     <row r="24">
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7152</v>
+        <v>6955</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02819505635597008</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09110712860543675</v>
+        <v>0.08859868129971894</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>16</v>
@@ -4016,19 +4016,19 @@
         <v>16991</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9612</v>
+        <v>10571</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>25712</v>
+        <v>26385</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08278596207129203</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04683229735857596</v>
+        <v>0.05150646626747525</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1252726398624269</v>
+        <v>0.128554800021714</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>18</v>
@@ -4037,19 +4037,19 @@
         <v>19205</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10833</v>
+        <v>11710</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>28405</v>
+        <v>28277</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06768234969948936</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03817722808959739</v>
+        <v>0.04126905290812572</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1001061637584094</v>
+        <v>0.09965581120530226</v>
       </c>
     </row>
     <row r="25">
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7574</v>
+        <v>6696</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01040986454913443</v>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03690134775922281</v>
+        <v>0.03262651424390467</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7447</v>
+        <v>7256</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.007529777528541765</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0262464602670701</v>
+        <v>0.02557107357045792</v>
       </c>
     </row>
     <row r="26">
@@ -4129,19 +4129,19 @@
         <v>4307</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9972</v>
+        <v>10399</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05486581278857476</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01361658842172923</v>
+        <v>0.01360063731196772</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1270193127156354</v>
+        <v>0.1324603792494276</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>20</v>
@@ -4150,19 +4150,19 @@
         <v>22453</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14704</v>
+        <v>13732</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>32658</v>
+        <v>32835</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1093983815921069</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07164245798433841</v>
+        <v>0.06690375273492134</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.159114780450118</v>
+        <v>0.1599816713597538</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -4171,19 +4171,19 @@
         <v>26761</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>18094</v>
+        <v>18136</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>37996</v>
+        <v>39219</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09431090923650465</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06376748847201812</v>
+        <v>0.0639140569937908</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.133906952371587</v>
+        <v>0.1382181186189725</v>
       </c>
     </row>
     <row r="27">
@@ -4200,19 +4200,19 @@
         <v>6498</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2223</v>
+        <v>2300</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>13348</v>
+        <v>13249</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.08277808202240294</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02832125022361182</v>
+        <v>0.02930069837521274</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1700245803471441</v>
+        <v>0.1687708181636544</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>21</v>
@@ -4221,19 +4221,19 @@
         <v>22986</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>14392</v>
+        <v>14266</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>32831</v>
+        <v>32640</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1119940148952798</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07011975823914714</v>
+        <v>0.0695089483570379</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1599611274904112</v>
+        <v>0.1590285274409544</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>27</v>
@@ -4242,19 +4242,19 @@
         <v>29485</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>20926</v>
+        <v>20127</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>42811</v>
+        <v>42173</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1039108713861094</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0737468257278327</v>
+        <v>0.07093246015807356</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1508748134491733</v>
+        <v>0.1486257946409677</v>
       </c>
     </row>
     <row r="28">
@@ -4271,19 +4271,19 @@
         <v>60308</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>51603</v>
+        <v>51029</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>67411</v>
+        <v>67495</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7682079092078181</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6573159379555693</v>
+        <v>0.6500121485735794</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8586846168518376</v>
+        <v>0.859758796631402</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>112</v>
@@ -4292,19 +4292,19 @@
         <v>121986</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>106808</v>
+        <v>107206</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>134309</v>
+        <v>136303</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5943449280962283</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5203910121154955</v>
+        <v>0.5223294925409154</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6543838172491553</v>
+        <v>0.6640993428563186</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>163</v>
@@ -4313,19 +4313,19 @@
         <v>182294</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>164653</v>
+        <v>165049</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>197335</v>
+        <v>198337</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.642447428652076</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5802742565794169</v>
+        <v>0.5816687729869473</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6954534911770176</v>
+        <v>0.6989866978625606</v>
       </c>
     </row>
     <row r="29">
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7413</v>
+        <v>6366</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02618538529871148</v>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09442908142068017</v>
+        <v>0.08109616207529433</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -4363,19 +4363,19 @@
         <v>13452</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7635</v>
+        <v>7468</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>21989</v>
+        <v>22350</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06554100453484765</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03719940870885177</v>
+        <v>0.03638564029482375</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1071349755720877</v>
+        <v>0.1088952952503818</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>15</v>
@@ -4384,19 +4384,19 @@
         <v>15508</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8826</v>
+        <v>8925</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>24325</v>
+        <v>24093</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05465252393892985</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.031105604697625</v>
+        <v>0.03145259013445022</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08572784801071175</v>
+        <v>0.08491042897157507</v>
       </c>
     </row>
     <row r="30">
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4142</v>
+        <v>4466</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04545319565507807</v>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1963082871429649</v>
+        <v>0.2116931774715157</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8405</v>
+        <v>6616</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04123693970893732</v>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2041028907095315</v>
+        <v>0.160651302959879</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10429</v>
+        <v>9340</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04266524794719737</v>
@@ -4874,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.167448765834212</v>
+        <v>0.1499641648680507</v>
       </c>
     </row>
     <row r="7">
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5103</v>
+        <v>5220</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02509267169191698</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1239218707383765</v>
+        <v>0.1267637575119597</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5254</v>
+        <v>5154</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01659222244136206</v>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08435867960388282</v>
+        <v>0.08275630475337807</v>
       </c>
     </row>
     <row r="9">
@@ -5048,7 +5048,7 @@
         <v>18352</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13145</v>
+        <v>11800</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>21098</v>
@@ -5057,7 +5057,7 @@
         <v>0.8698527821756161</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6230236330532042</v>
+        <v>0.5592831212189412</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -5069,19 +5069,19 @@
         <v>25906</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18511</v>
+        <v>18176</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31680</v>
+        <v>31762</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6290562849210032</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4494901041147413</v>
+        <v>0.4413595372664142</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7692565436653485</v>
+        <v>0.7712558573252849</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -5090,19 +5090,19 @@
         <v>44259</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36053</v>
+        <v>35868</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50811</v>
+        <v>50867</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7106290416906053</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5788834310292046</v>
+        <v>0.5759118675064684</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8158368435558636</v>
+        <v>0.8167278182969618</v>
       </c>
     </row>
     <row r="11">
@@ -5122,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6634</v>
+        <v>9204</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0846940221693058</v>
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3144533880669586</v>
+        <v>0.436242800143686</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -5140,19 +5140,19 @@
         <v>12545</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7220</v>
+        <v>7256</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19297</v>
+        <v>19438</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3046141036781425</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1753262081788318</v>
+        <v>0.1761958280765684</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4685775424901703</v>
+        <v>0.4720048714571907</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>13</v>
@@ -5161,19 +5161,19 @@
         <v>14332</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8153</v>
+        <v>8710</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22015</v>
+        <v>22710</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2301134879208352</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1309047933898813</v>
+        <v>0.1398577858440079</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.353481076788751</v>
+        <v>0.3646378230058863</v>
       </c>
     </row>
     <row r="12">
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9002</v>
+        <v>7712</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01866915270798819</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06892138560555042</v>
+        <v>0.05904911304147577</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8672</v>
+        <v>8713</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01342644291760507</v>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04775208426413381</v>
+        <v>0.04797628057443905</v>
       </c>
     </row>
     <row r="15">
@@ -5375,19 +5375,19 @@
         <v>3247</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8183</v>
+        <v>7575</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06366838962466005</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01615440062014882</v>
+        <v>0.01602028389848747</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1604604585917475</v>
+        <v>0.1485360725589844</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -5396,19 +5396,19 @@
         <v>6070</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2334</v>
+        <v>2390</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>14637</v>
+        <v>13390</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0464767614496371</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01787411994924097</v>
+        <v>0.01830024208264298</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1120660880078323</v>
+        <v>0.1025197321656513</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>9</v>
@@ -5417,19 +5417,19 @@
         <v>9317</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>4534</v>
+        <v>4680</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>16850</v>
+        <v>18931</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0513045497673819</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02496562245611878</v>
+        <v>0.02576890115869447</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.09278422777729813</v>
+        <v>0.104243870677104</v>
       </c>
     </row>
     <row r="16">
@@ -5493,19 +5493,19 @@
         <v>9746</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5323</v>
+        <v>5068</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16085</v>
+        <v>15758</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1911074319165635</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1043784508763493</v>
+        <v>0.09936608028261337</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3153999734714609</v>
+        <v>0.308991165981818</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -5514,19 +5514,19 @@
         <v>23096</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13894</v>
+        <v>14155</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34303</v>
+        <v>35038</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1768406976345071</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1063785842646692</v>
+        <v>0.1083770645883178</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2626430775121243</v>
+        <v>0.2682728187478678</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>28</v>
@@ -5535,19 +5535,19 @@
         <v>32843</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22127</v>
+        <v>22562</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>45193</v>
+        <v>47104</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1808471112445542</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1218404299334197</v>
+        <v>0.1242362381870294</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2488535203309843</v>
+        <v>0.259373681720912</v>
       </c>
     </row>
     <row r="18">
@@ -5564,19 +5564,19 @@
         <v>2837</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7758</v>
+        <v>7873</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0556316540713769</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0143468676510189</v>
+        <v>0.01472476465825791</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1521269843752032</v>
+        <v>0.1543692775104245</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -5585,19 +5585,19 @@
         <v>6339</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1358</v>
+        <v>2413</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14050</v>
+        <v>14082</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04853654821439474</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01039523874964595</v>
+        <v>0.01847256689741779</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1075764097772548</v>
+        <v>0.1078189111019209</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
@@ -5606,19 +5606,19 @@
         <v>9176</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3631</v>
+        <v>4104</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>17323</v>
+        <v>17652</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0505290104070838</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0199929255825411</v>
+        <v>0.02259900727829327</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09538840887137173</v>
+        <v>0.09719727923371828</v>
       </c>
     </row>
     <row r="19">
@@ -5635,19 +5635,19 @@
         <v>31124</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24317</v>
+        <v>24414</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37475</v>
+        <v>37196</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6102860526261029</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.476821673627691</v>
+        <v>0.4787064387965214</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7348109778883102</v>
+        <v>0.7293472998846183</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -5656,19 +5656,19 @@
         <v>76594</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>62963</v>
+        <v>63961</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>89568</v>
+        <v>89288</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5864510352310471</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4820866678628419</v>
+        <v>0.4897280429250007</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6857841996346276</v>
+        <v>0.6836454482541932</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>93</v>
@@ -5677,19 +5677,19 @@
         <v>107718</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>93717</v>
+        <v>92258</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>123159</v>
+        <v>122015</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5931444337481391</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5160482813705664</v>
+        <v>0.5080126669596502</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6781698624814919</v>
+        <v>0.6718684936178708</v>
       </c>
     </row>
     <row r="20">
@@ -5706,19 +5706,19 @@
         <v>4045</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>910</v>
+        <v>1487</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9353</v>
+        <v>9768</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07930647176129654</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01784388070588129</v>
+        <v>0.02914959826211738</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.183395593378779</v>
+        <v>0.191533274078321</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -5727,19 +5727,19 @@
         <v>16068</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8874</v>
+        <v>8964</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26232</v>
+        <v>27069</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1230258047624258</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06794335542269911</v>
+        <v>0.06863495165667789</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2008515564140782</v>
+        <v>0.2072586605442009</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -5748,19 +5748,19 @@
         <v>20112</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>12220</v>
+        <v>12318</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>32310</v>
+        <v>31901</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.110748451915236</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06728846757468143</v>
+        <v>0.06782776130876844</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1779126849408148</v>
+        <v>0.1756594035392522</v>
       </c>
     </row>
     <row r="21">
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7178</v>
+        <v>8552</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0141936601127321</v>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04178491297579999</v>
+        <v>0.04978414754533993</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7404</v>
+        <v>8458</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.009997756885252576</v>
@@ -5945,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03035766344929366</v>
+        <v>0.03468043115690918</v>
       </c>
     </row>
     <row r="24">
@@ -5962,19 +5962,19 @@
         <v>4206</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8751</v>
+        <v>9046</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05833793241762878</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02214456964967699</v>
+        <v>0.02221541278396244</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1213718196971734</v>
+        <v>0.1254732645850176</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -5983,19 +5983,19 @@
         <v>7768</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3513</v>
+        <v>2521</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16254</v>
+        <v>16097</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04522063677339887</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0204490339909256</v>
+        <v>0.01467574469887205</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09461449874645682</v>
+        <v>0.09370138175092746</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -6004,19 +6004,19 @@
         <v>11974</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5874</v>
+        <v>6187</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20741</v>
+        <v>20705</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04909834715199642</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02408675237057131</v>
+        <v>0.02537038925319327</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08504228942117327</v>
+        <v>0.08489725628697212</v>
       </c>
     </row>
     <row r="25">
@@ -6080,19 +6080,19 @@
         <v>9746</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5376</v>
+        <v>5130</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16261</v>
+        <v>16313</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1351821428706154</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07456329261075115</v>
+        <v>0.07115669828266706</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2255368521676862</v>
+        <v>0.2262643532246799</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -6101,19 +6101,19 @@
         <v>24130</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>15201</v>
+        <v>14433</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>36840</v>
+        <v>37253</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1404626585733023</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08848667108150256</v>
+        <v>0.08401647207736038</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2144507117137811</v>
+        <v>0.2168517736065554</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>29</v>
@@ -6122,19 +6122,19 @@
         <v>33876</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>23199</v>
+        <v>22927</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>46750</v>
+        <v>47464</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.138901642408079</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09512461190206938</v>
+        <v>0.0940091209059182</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1916905870576374</v>
+        <v>0.1946166266321296</v>
       </c>
     </row>
     <row r="27">
@@ -6154,16 +6154,16 @@
         <v>741</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8492</v>
+        <v>8605</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.03935172030404811</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01028429901579257</v>
+        <v>0.01027634499372077</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1177816731560914</v>
+        <v>0.1193470203408773</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>5</v>
@@ -6172,19 +6172,19 @@
         <v>6339</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2465</v>
+        <v>2454</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>13806</v>
+        <v>13673</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03690104629684562</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01435196444079795</v>
+        <v>0.01428410951507401</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08036694060173434</v>
+        <v>0.07959365953980264</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>8</v>
@@ -6193,19 +6193,19 @@
         <v>9176</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4062</v>
+        <v>4601</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>17429</v>
+        <v>18147</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03762550995841359</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01665417678052865</v>
+        <v>0.01886410874921862</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07146603618436853</v>
+        <v>0.07440823037278961</v>
       </c>
     </row>
     <row r="28">
@@ -6222,19 +6222,19 @@
         <v>49476</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>41807</v>
+        <v>41406</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>56824</v>
+        <v>55912</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6862451308847953</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5798710806798869</v>
+        <v>0.5743126738752284</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7881627857194959</v>
+        <v>0.7755113083280597</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>82</v>
@@ -6243,19 +6243,19 @@
         <v>102500</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>88054</v>
+        <v>86382</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>115827</v>
+        <v>116254</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5966646470906173</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5125725471127556</v>
+        <v>0.5028421465212634</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6742421597137933</v>
+        <v>0.6767313271124565</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>136</v>
@@ -6264,19 +6264,19 @@
         <v>151976</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>134349</v>
+        <v>135233</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>167478</v>
+        <v>167702</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6231462619866934</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.550868808985446</v>
+        <v>0.5544936796885551</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6867069067481406</v>
+        <v>0.6876289223124168</v>
       </c>
     </row>
     <row r="29">
@@ -6293,19 +6293,19 @@
         <v>5831</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1756</v>
+        <v>2310</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12811</v>
+        <v>12109</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08088307352291238</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02436179196669721</v>
+        <v>0.03204221437562474</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1776892355511038</v>
+        <v>0.1679542543505484</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -6314,19 +6314,19 @@
         <v>28613</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19733</v>
+        <v>18906</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>41006</v>
+        <v>41034</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1665573511531038</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1148659067761599</v>
+        <v>0.1100554487971303</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2386984076038163</v>
+        <v>0.2388663024602657</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>29</v>
@@ -6335,19 +6335,19 @@
         <v>34444</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>24497</v>
+        <v>23168</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>49366</v>
+        <v>47464</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1412304816095649</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1004458536183684</v>
+        <v>0.09499760015684625</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2024157201574524</v>
+        <v>0.1946183490403093</v>
       </c>
     </row>
     <row r="30">
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3827</v>
+        <v>3701</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02062958342513211</v>
@@ -6702,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06435497659314701</v>
+        <v>0.06223400384107643</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4237</v>
+        <v>4234</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01356288596167341</v>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04684619801314546</v>
+        <v>0.04681852845990838</v>
       </c>
     </row>
     <row r="5">
@@ -6740,19 +6740,19 @@
         <v>1862</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4893</v>
+        <v>5290</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06010777814395341</v>
+        <v>0.06010777814395342</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0</v>
+        <v>0.01594241191868765</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1579240493383724</v>
+        <v>0.1707453953855922</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -6761,19 +6761,19 @@
         <v>4874</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2429</v>
+        <v>2325</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9068</v>
+        <v>8597</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08196841658707367</v>
+        <v>0.08196841658707368</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04084380525183914</v>
+        <v>0.03909357980126897</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1525090472809867</v>
+        <v>0.1445769379827095</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -6782,19 +6782,19 @@
         <v>6736</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3595</v>
+        <v>3670</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11598</v>
+        <v>11461</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.07448001921849733</v>
+        <v>0.07448001921849734</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03975351859849155</v>
+        <v>0.04057827125006829</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1282306334242093</v>
+        <v>0.1267167165293034</v>
       </c>
     </row>
     <row r="6">
@@ -6814,16 +6814,16 @@
         <v>463</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4342</v>
+        <v>4312</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04937493942920499</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01494587914631249</v>
+        <v>0.01493759577918635</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1401414479090785</v>
+        <v>0.1391643686618928</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -6832,19 +6832,19 @@
         <v>6857</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3626</v>
+        <v>3867</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10816</v>
+        <v>10922</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1153201123983708</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06097675323724764</v>
+        <v>0.06503238400895363</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1818910531445947</v>
+        <v>0.1836846277060813</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -6853,19 +6853,19 @@
         <v>8387</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5031</v>
+        <v>4832</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13286</v>
+        <v>12697</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09273048579540098</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0556296609306308</v>
+        <v>0.05341980759360276</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.146896079810528</v>
+        <v>0.1403847361289038</v>
       </c>
     </row>
     <row r="7">
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2597</v>
+        <v>2592</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01603355806148093</v>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08381395710561131</v>
+        <v>0.08367629290555907</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -6953,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2634</v>
+        <v>2302</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.006514645615103305</v>
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04429968958485798</v>
+        <v>0.03871358029835965</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3134</v>
+        <v>2829</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.009775364605567919</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03465422494257714</v>
+        <v>0.03127557379919022</v>
       </c>
     </row>
     <row r="9">
@@ -7003,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4163</v>
+        <v>4392</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03774746152923317</v>
@@ -7012,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1343572088973806</v>
+        <v>0.1417559903553922</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -7021,19 +7021,19 @@
         <v>1788</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4859</v>
+        <v>4968</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.03006793603506354</v>
+        <v>0.03006793603506353</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.007720742729631039</v>
+        <v>0.007578804037671541</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08171731968007853</v>
+        <v>0.08355491693512568</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -7042,19 +7042,19 @@
         <v>2957</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6542</v>
+        <v>6379</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03269857002373156</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01218319833627558</v>
+        <v>0.0120469888773918</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07233611575818924</v>
+        <v>0.07053221591199144</v>
       </c>
     </row>
     <row r="10">
@@ -7071,19 +7071,19 @@
         <v>23679</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19242</v>
+        <v>19839</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26709</v>
+        <v>26724</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7642733162474478</v>
+        <v>0.7642733162474477</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6210681500521499</v>
+        <v>0.6403455374615391</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8620653304023407</v>
+        <v>0.86256258430259</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -7092,19 +7092,19 @@
         <v>40952</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35812</v>
+        <v>35467</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46060</v>
+        <v>45948</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6887102493812858</v>
+        <v>0.6887102493812857</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6022662567298337</v>
+        <v>0.5964601319599929</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7746117618803448</v>
+        <v>0.7727216802163299</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>109</v>
@@ -7113,19 +7113,19 @@
         <v>64631</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57735</v>
+        <v>57805</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>70653</v>
+        <v>70948</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7145945012321371</v>
+        <v>0.7145945012321372</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6383502339780499</v>
+        <v>0.6391252945617621</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7811773025760458</v>
+        <v>0.7844439622344513</v>
       </c>
     </row>
     <row r="11">
@@ -7142,19 +7142,19 @@
         <v>2245</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5337</v>
+        <v>5172</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0724629465886797</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01899418898870385</v>
+        <v>0.01824352183821934</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1722624147713861</v>
+        <v>0.1669422437470759</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -7163,19 +7163,19 @@
         <v>3377</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1228</v>
+        <v>1284</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6777</v>
+        <v>6882</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05678905655797083</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02064622274848963</v>
+        <v>0.02159168663309239</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1139664360946407</v>
+        <v>0.1157361897773786</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -7184,19 +7184,19 @@
         <v>5622</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2943</v>
+        <v>2793</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10146</v>
+        <v>9851</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06215817316299176</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0325383236447469</v>
+        <v>0.03088384530133284</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1121778757660437</v>
+        <v>0.108918100933261</v>
       </c>
     </row>
     <row r="12">
@@ -7288,19 +7288,19 @@
         <v>2152</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6812</v>
+        <v>6652</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02773108105775502</v>
+        <v>0.02773108105775501</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006463788841013263</v>
+        <v>0.006344935799547736</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0877845969211605</v>
+        <v>0.08573307267014509</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -7309,19 +7309,19 @@
         <v>7898</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4417</v>
+        <v>4418</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13093</v>
+        <v>12407</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03656907543145579</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02045196233356876</v>
+        <v>0.02045693634688879</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06062635531282322</v>
+        <v>0.05744649606289668</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -7330,19 +7330,19 @@
         <v>10049</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6020</v>
+        <v>5923</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16111</v>
+        <v>15895</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03423301090209326</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02050821388844359</v>
+        <v>0.02017578177472941</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05488039394532163</v>
+        <v>0.05414593913042045</v>
       </c>
     </row>
     <row r="14">
@@ -7359,19 +7359,19 @@
         <v>6228</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3391</v>
+        <v>3431</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10727</v>
+        <v>11269</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0802698871250144</v>
+        <v>0.08026988712501437</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04370507121253878</v>
+        <v>0.04421504414454478</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1382474960185261</v>
+        <v>0.1452339039371281</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -7380,19 +7380,19 @@
         <v>13950</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9566</v>
+        <v>9397</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19906</v>
+        <v>20000</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.06459182912339823</v>
+        <v>0.06459182912339824</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04429342339364485</v>
+        <v>0.04351291435793742</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09217370511061418</v>
+        <v>0.0926086510303973</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>37</v>
@@ -7401,19 +7401,19 @@
         <v>20178</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14394</v>
+        <v>14126</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>27622</v>
+        <v>27095</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.06873586380346645</v>
+        <v>0.06873586380346644</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04903210481172484</v>
+        <v>0.04812047186306787</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09409149650011904</v>
+        <v>0.09229697859702386</v>
       </c>
     </row>
     <row r="15">
@@ -7430,19 +7430,19 @@
         <v>12743</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8190</v>
+        <v>7896</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>19115</v>
+        <v>18796</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1642247040063514</v>
+        <v>0.1642247040063513</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.105550097503586</v>
+        <v>0.1017648741082268</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2463424352113302</v>
+        <v>0.2422387773806423</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>88</v>
@@ -7451,19 +7451,19 @@
         <v>44599</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>36741</v>
+        <v>35716</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>53894</v>
+        <v>53404</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2065104055793393</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1701245731281468</v>
+        <v>0.1653773228340305</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2495476186622515</v>
+        <v>0.2472795290209107</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>108</v>
@@ -7472,19 +7472,19 @@
         <v>57342</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>46951</v>
+        <v>47357</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>67991</v>
+        <v>68891</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1953334209189041</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1599373611547502</v>
+        <v>0.1613193618976774</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2316076328127774</v>
+        <v>0.2346746810417517</v>
       </c>
     </row>
     <row r="16">
@@ -7501,19 +7501,19 @@
         <v>2149</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5967</v>
+        <v>5625</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02769689926996112</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007124854913956149</v>
+        <v>0.007210864293177001</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07689654135015439</v>
+        <v>0.07248977178593902</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -7522,19 +7522,19 @@
         <v>3427</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1660</v>
+        <v>1579</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6718</v>
+        <v>6933</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.01586604926080683</v>
+        <v>0.01586604926080684</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007685462007155228</v>
+        <v>0.007310793059301477</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03110810966832277</v>
+        <v>0.03210189020632447</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -7543,19 +7543,19 @@
         <v>5576</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2966</v>
+        <v>3013</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10038</v>
+        <v>10357</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01899318737495125</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01010333646549685</v>
+        <v>0.01026388034854123</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0341955891656362</v>
+        <v>0.03527963318480795</v>
       </c>
     </row>
     <row r="17">
@@ -7572,19 +7572,19 @@
         <v>3206</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1178</v>
+        <v>961</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7211</v>
+        <v>7197</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04132276342213787</v>
+        <v>0.04132276342213786</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01518430353203361</v>
+        <v>0.01237972525964961</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09293850439018704</v>
+        <v>0.09275629300508266</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -7593,19 +7593,19 @@
         <v>18759</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12606</v>
+        <v>13100</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25626</v>
+        <v>26084</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.08686008377319009</v>
+        <v>0.0868600837731901</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05836861732077723</v>
+        <v>0.06065743345801137</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1186557224169345</v>
+        <v>0.1207762057918046</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>38</v>
@@ -7614,19 +7614,19 @@
         <v>21965</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15541</v>
+        <v>15447</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>30259</v>
+        <v>29955</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.07482362908264846</v>
+        <v>0.07482362908264845</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05293831050351541</v>
+        <v>0.05261897294236374</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.103077130437815</v>
+        <v>0.1020417086865061</v>
       </c>
     </row>
     <row r="18">
@@ -7643,19 +7643,19 @@
         <v>4727</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2091</v>
+        <v>2005</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9616</v>
+        <v>9484</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.06092080386996164</v>
+        <v>0.06092080386996161</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0269520184102196</v>
+        <v>0.02583332676163494</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1239279127950836</v>
+        <v>0.1222322738266077</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>26</v>
@@ -7664,19 +7664,19 @@
         <v>13111</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8759</v>
+        <v>8693</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19732</v>
+        <v>19035</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.06071008455780798</v>
+        <v>0.06071008455780802</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04055667600024648</v>
+        <v>0.04025321000477901</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09136791671070586</v>
+        <v>0.08814074367446945</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>33</v>
@@ -7685,19 +7685,19 @@
         <v>17838</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12229</v>
+        <v>11791</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>24704</v>
+        <v>25128</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06076578202602981</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04165724352846892</v>
+        <v>0.04016688995816774</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08415363625219283</v>
+        <v>0.08559851705575293</v>
       </c>
     </row>
     <row r="19">
@@ -7714,19 +7714,19 @@
         <v>42687</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35564</v>
+        <v>35528</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49468</v>
+        <v>49883</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.5501304983010007</v>
+        <v>0.5501304983010005</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4583347939702671</v>
+        <v>0.4578640126467781</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6375265544615587</v>
+        <v>0.6428712069044547</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>193</v>
@@ -7735,19 +7735,19 @@
         <v>104903</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>93625</v>
+        <v>93995</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>115229</v>
+        <v>115830</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.485736823468448</v>
+        <v>0.4857368234684482</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4335154570013164</v>
+        <v>0.4352288085187401</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.533546869814619</v>
+        <v>0.5363321667465917</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>261</v>
@@ -7756,19 +7756,19 @@
         <v>147590</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>135314</v>
+        <v>134843</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>160433</v>
+        <v>161760</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.5027574022707223</v>
+        <v>0.5027574022707222</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4609386196311389</v>
+        <v>0.4593342696484853</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5465068359262135</v>
+        <v>0.5510280155577606</v>
       </c>
     </row>
     <row r="20">
@@ -7785,19 +7785,19 @@
         <v>3701</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1309</v>
+        <v>1359</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7612</v>
+        <v>8598</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04770336294781814</v>
+        <v>0.04770336294781813</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01687383364197412</v>
+        <v>0.01750949875504346</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09809951951435936</v>
+        <v>0.1108083925346433</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -7806,19 +7806,19 @@
         <v>9320</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5634</v>
+        <v>5661</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13667</v>
+        <v>14128</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.04315564880555363</v>
+        <v>0.04315564880555364</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02608724815011878</v>
+        <v>0.02621024267950458</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06328243638748081</v>
+        <v>0.0654178823347808</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -7827,19 +7827,19 @@
         <v>13022</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8499</v>
+        <v>8422</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18950</v>
+        <v>19680</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04435770362118437</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02895135759091743</v>
+        <v>0.02868919686560964</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06455122247949147</v>
+        <v>0.06703814724881875</v>
       </c>
     </row>
     <row r="21">
@@ -7931,19 +7931,19 @@
         <v>2152</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>519</v>
+        <v>492</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6427</v>
+        <v>6642</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01981813680316461</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004784317509066763</v>
+        <v>0.004530247125711833</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0591955728457811</v>
+        <v>0.06116940343843677</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -7952,19 +7952,19 @@
         <v>9124</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5417</v>
+        <v>5155</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14840</v>
+        <v>14351</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03312791143900295</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01966575113082849</v>
+        <v>0.01871643101143751</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05387872240458709</v>
+        <v>0.05210551273592388</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -7973,19 +7973,19 @@
         <v>11276</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6683</v>
+        <v>6898</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18142</v>
+        <v>18045</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02936462288150008</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01740353523602527</v>
+        <v>0.01796376385654496</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04724376626650682</v>
+        <v>0.04699050183031023</v>
       </c>
     </row>
     <row r="23">
@@ -8002,19 +8002,19 @@
         <v>8091</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4434</v>
+        <v>4415</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13701</v>
+        <v>12602</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07451671637448225</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04084105281455699</v>
+        <v>0.0406635046926902</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1261896109065473</v>
+        <v>0.1160697279543901</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>35</v>
@@ -8023,19 +8023,19 @@
         <v>18824</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>13216</v>
+        <v>13578</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26348</v>
+        <v>25467</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06834324648776498</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04798268960974753</v>
+        <v>0.04929618732683868</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09566076756995003</v>
+        <v>0.09246189949997496</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>49</v>
@@ -8044,19 +8044,19 @@
         <v>26914</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20619</v>
+        <v>20841</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>35707</v>
+        <v>35910</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07008877180434057</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05369449829367998</v>
+        <v>0.05427319675527795</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09298633015972137</v>
+        <v>0.09351402496366941</v>
       </c>
     </row>
     <row r="24">
@@ -8073,19 +8073,19 @@
         <v>14273</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9576</v>
+        <v>8736</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20725</v>
+        <v>20360</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1314528195327872</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08819365716211965</v>
+        <v>0.08045633969201667</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1908823166203924</v>
+        <v>0.187520483037292</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>101</v>
@@ -8094,19 +8094,19 @@
         <v>51457</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>42054</v>
+        <v>41479</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>61123</v>
+        <v>60988</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1868234071962621</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1526871045414742</v>
+        <v>0.1505986138146486</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2219209214898915</v>
+        <v>0.2214273069574572</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>124</v>
@@ -8115,19 +8115,19 @@
         <v>65729</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>55678</v>
+        <v>55481</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>77644</v>
+        <v>78625</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1711675824601253</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1449922885049515</v>
+        <v>0.1444797985563233</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2021942360459317</v>
+        <v>0.2047507275223078</v>
       </c>
     </row>
     <row r="25">
@@ -8144,19 +8144,19 @@
         <v>2149</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6319</v>
+        <v>6076</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.01979370864094239</v>
+        <v>0.0197937086409424</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005265255418663575</v>
+        <v>0.005089431612525813</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05819701517494513</v>
+        <v>0.05595764930700627</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -8165,19 +8165,19 @@
         <v>3427</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1420</v>
+        <v>1532</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6972</v>
+        <v>6598</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0124407407630761</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005156575711279739</v>
+        <v>0.005563649132731679</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02531189970377173</v>
+        <v>0.02395690751361302</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -8186,19 +8186,19 @@
         <v>5576</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2879</v>
+        <v>2875</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10066</v>
+        <v>10759</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01451976468613725</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00749759398482008</v>
+        <v>0.007486043254286644</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02621217560955045</v>
+        <v>0.02801847652252581</v>
       </c>
     </row>
     <row r="26">
@@ -8215,19 +8215,19 @@
         <v>3703</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1461</v>
+        <v>1343</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8292</v>
+        <v>8412</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03410659785524209</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01345638934862593</v>
+        <v>0.0123667821802442</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07637147625948057</v>
+        <v>0.07747537857054519</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>34</v>
@@ -8236,19 +8236,19 @@
         <v>19146</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13550</v>
+        <v>13435</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>27108</v>
+        <v>27015</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06951437233911388</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04919603080033227</v>
+        <v>0.04877755241421024</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09842105191243056</v>
+        <v>0.09808499651459021</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>40</v>
@@ -8257,19 +8257,19 @@
         <v>22849</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15893</v>
+        <v>16033</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31438</v>
+        <v>32538</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05950295770531503</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04138750007788641</v>
+        <v>0.0417533576995482</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08186923866789637</v>
+        <v>0.08473317553643522</v>
       </c>
     </row>
     <row r="27">
@@ -8286,19 +8286,19 @@
         <v>5897</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2839</v>
+        <v>2757</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>11470</v>
+        <v>10865</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.05430839068084636</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02614831633111587</v>
+        <v>0.02539471150916942</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1056427417691156</v>
+        <v>0.1000713729117364</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>29</v>
@@ -8307,19 +8307,19 @@
         <v>14899</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>10072</v>
+        <v>10073</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>21446</v>
+        <v>21252</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.05409477598297843</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03656717667885923</v>
+        <v>0.03657076733217487</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.07786477585206</v>
+        <v>0.07716100209761437</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>38</v>
@@ -8328,19 +8328,19 @@
         <v>20796</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>14617</v>
+        <v>14837</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>28543</v>
+        <v>29075</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05415517473278417</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03806575417162714</v>
+        <v>0.03863660854674183</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07432933726277344</v>
+        <v>0.07571574493417242</v>
       </c>
     </row>
     <row r="28">
@@ -8357,19 +8357,19 @@
         <v>66365</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>57263</v>
+        <v>58764</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>73956</v>
+        <v>74340</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6112352268689938</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5273969698250212</v>
+        <v>0.5412261180343901</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6811449272789986</v>
+        <v>0.684677224750747</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>267</v>
@@ -8378,19 +8378,19 @@
         <v>145855</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>132678</v>
+        <v>133519</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>157765</v>
+        <v>157606</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5295565916517095</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.481714781322164</v>
+        <v>0.4847689421678372</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5727956716301946</v>
+        <v>0.5722196501860929</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>370</v>
@@ -8399,19 +8399,19 @@
         <v>212221</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>198662</v>
+        <v>195874</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>228387</v>
+        <v>225906</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5526509175674913</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5173429924890098</v>
+        <v>0.5100818846371444</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5947513317314438</v>
+        <v>0.5882890241564912</v>
       </c>
     </row>
     <row r="29">
@@ -8428,19 +8428,19 @@
         <v>5947</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2998</v>
+        <v>3036</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11179</v>
+        <v>10220</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05476840324354136</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02761352842248453</v>
+        <v>0.02796490807814715</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1029564199007272</v>
+        <v>0.09412675434669396</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>25</v>
@@ -8449,19 +8449,19 @@
         <v>12697</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7705</v>
+        <v>8328</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18140</v>
+        <v>18510</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04609895414009209</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02797553798366722</v>
+        <v>0.03023741909789351</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06586212613972538</v>
+        <v>0.06720282034853467</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>35</v>
@@ -8470,19 +8470,19 @@
         <v>18644</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12989</v>
+        <v>13204</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>26212</v>
+        <v>25452</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04855020816230635</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03382630851117586</v>
+        <v>0.03438562214179337</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06825950954912456</v>
+        <v>0.06628058355422151</v>
       </c>
     </row>
     <row r="30">
